--- a/IT002-OOP/Điểm thực hành/it002n11/it002n111.xlsx
+++ b/IT002-OOP/Điểm thực hành/it002n11/it002n111.xlsx
@@ -1,38 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haime\OneDrive\Máy tính\Quan trọng\Giảng dạy\IT002-OOP\Điểm thực hành\it002n11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4D9454-A154-441A-B58A-76D4237C337F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FDC594-38FC-42F4-8DFA-E27AA0374475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -40,181 +28,91 @@
     <t>Name</t>
   </si>
   <si>
-    <t>14520094</t>
-  </si>
-  <si>
     <t>Đặng Sỹ Minh Công</t>
   </si>
   <si>
-    <t>17520234</t>
-  </si>
-  <si>
     <t>Lê Đức Anh</t>
   </si>
   <si>
-    <t>17520502</t>
-  </si>
-  <si>
     <t>Bùi Thái Hoàng</t>
   </si>
   <si>
-    <t>17521319</t>
-  </si>
-  <si>
     <t>Huỳnh Bảo Minh</t>
   </si>
   <si>
-    <t>18520116</t>
-  </si>
-  <si>
     <t>Đỗ Thị Thanh Nhã</t>
   </si>
   <si>
-    <t>18520630</t>
-  </si>
-  <si>
     <t>Hồ Anh Dũng</t>
   </si>
   <si>
-    <t>18520808</t>
-  </si>
-  <si>
     <t>Phùng Thế Hùng</t>
   </si>
   <si>
-    <t>18521362</t>
-  </si>
-  <si>
     <t>Nguyễn Ích Tài</t>
   </si>
   <si>
-    <t>18521440</t>
-  </si>
-  <si>
     <t>Nguyễn Đức Thịnh</t>
   </si>
   <si>
-    <t>19520139</t>
-  </si>
-  <si>
     <t>Nguyễn Quốc Lân</t>
   </si>
   <si>
-    <t>19521134</t>
-  </si>
-  <si>
     <t>Nguyễn Trường Khang</t>
   </si>
   <si>
-    <t>19521532</t>
-  </si>
-  <si>
     <t>Hồ Nam Hoàng</t>
   </si>
   <si>
-    <t>19522614</t>
-  </si>
-  <si>
     <t>Nguyễn Thu Trang</t>
   </si>
   <si>
-    <t>20520566</t>
-  </si>
-  <si>
     <t>Phạm Quang Khải</t>
   </si>
   <si>
-    <t>20520618</t>
-  </si>
-  <si>
     <t>Ngô Hoàng Lộc</t>
   </si>
   <si>
-    <t>20520745</t>
-  </si>
-  <si>
     <t>Trương Quốc Tài</t>
   </si>
   <si>
-    <t>20520993</t>
-  </si>
-  <si>
     <t>Lê Duy Hiệp</t>
   </si>
   <si>
-    <t>20521148</t>
-  </si>
-  <si>
     <t>Dương Chí Cường</t>
   </si>
   <si>
-    <t>20521170</t>
-  </si>
-  <si>
     <t>Nguyễn Quốc Đạt</t>
   </si>
   <si>
-    <t>20521418</t>
-  </si>
-  <si>
     <t>Văn Ngọc Nhật Huy</t>
   </si>
   <si>
-    <t>21520140</t>
-  </si>
-  <si>
     <t>Nguyễn Đức Anh</t>
   </si>
   <si>
-    <t>21520395</t>
-  </si>
-  <si>
     <t>Lê Thanh Phong</t>
   </si>
   <si>
-    <t>21521232</t>
-  </si>
-  <si>
     <t>Nguyễn Thanh Nhi</t>
   </si>
   <si>
-    <t>21521431</t>
-  </si>
-  <si>
     <t>Nguyễn Khắc Thắng</t>
   </si>
   <si>
-    <t>21521432</t>
-  </si>
-  <si>
     <t>Nguyễn Kiến Bảo Thắng</t>
   </si>
   <si>
-    <t>21521917</t>
-  </si>
-  <si>
     <t>Trần Quang Dân</t>
   </si>
   <si>
-    <t>21521922</t>
-  </si>
-  <si>
     <t>Trần Huỳnh Duy Đăng</t>
   </si>
   <si>
-    <t>21522022</t>
-  </si>
-  <si>
     <t>Lê Linh Giang</t>
   </si>
   <si>
-    <t>21522449</t>
-  </si>
-  <si>
     <t>Trần Tiến Phát</t>
-  </si>
-  <si>
-    <t>21522680</t>
   </si>
   <si>
     <t>Hà Hữu Tính</t>
@@ -224,9 +122,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -276,12 +171,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -587,13 +481,10 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="24.625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -619,269 +510,294 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>14520094</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>17520234</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>17520502</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D4">
+        <v>264.29000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>17521319</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="D5">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>18520116</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>18520630</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>18520808</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D8">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>18521362</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="D9">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>18521440</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>19520139</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>19521134</v>
+      </c>
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>19521532</v>
+      </c>
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>19522614</v>
+      </c>
+      <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>20520566</v>
+      </c>
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="D15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>20520618</v>
+      </c>
+      <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>20520745</v>
+      </c>
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>20520993</v>
+      </c>
+      <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D18">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>20521148</v>
+      </c>
+      <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>20521170</v>
+      </c>
+      <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20521418</v>
+      </c>
+      <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="D21">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21520140</v>
+      </c>
+      <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D22">
+        <v>771.43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21520395</v>
+      </c>
+      <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="D23">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>21521232</v>
+      </c>
+      <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D24">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>21521431</v>
+      </c>
+      <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="D25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>21521432</v>
+      </c>
+      <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>21521917</v>
+      </c>
+      <c r="B27" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="D27">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>21521922</v>
+      </c>
+      <c r="B28" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D28">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>21522022</v>
+      </c>
+      <c r="B29" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>21522449</v>
+      </c>
+      <c r="B30" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D30">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>21522680</v>
+      </c>
+      <c r="B31" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
-      </c>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" t="s">
-        <v>61</v>
+      <c r="D31">
+        <v>800</v>
       </c>
     </row>
   </sheetData>

--- a/IT002-OOP/Điểm thực hành/it002n11/it002n111.xlsx
+++ b/IT002-OOP/Điểm thực hành/it002n11/it002n111.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haime\OneDrive\Máy tính\Quan trọng\Giảng dạy\IT002-OOP\Điểm thực hành\it002n11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FDC594-38FC-42F4-8DFA-E27AA0374475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A261B59F-C5C7-4C96-A5C5-7264A30133A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -116,13 +129,31 @@
   </si>
   <si>
     <t>Hà Hữu Tính</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Thi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Thi bên .2</t>
+  </si>
+  <si>
+    <t>Cho 7 để tạo điều kiện ra trường</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +165,13 @@
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,11 +209,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -478,15 +519,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,299 +552,774 @@
       <c r="G1" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>14520094</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="C2" s="2">
+        <v>300</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="3">
+        <f>SUM(C2:G2)/800+H2/2</f>
+        <v>1.375</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>17520234</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:I31" si="0">SUM(C3:G3)/800+H3/2</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>17520502</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4">
+      <c r="C4" s="2">
+        <v>800</v>
+      </c>
+      <c r="D4" s="2">
         <v>264.29000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>800</v>
+      </c>
+      <c r="G4" s="2">
+        <v>800</v>
+      </c>
+      <c r="H4" s="2">
+        <v>7</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="0"/>
+        <v>6.8303624999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>17521319</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5">
+      <c r="C5" s="2">
+        <v>800</v>
+      </c>
+      <c r="D5" s="2">
         <v>600</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="E5" s="2">
+        <v>700</v>
+      </c>
+      <c r="F5" s="2">
+        <v>600</v>
+      </c>
+      <c r="G5" s="2">
+        <v>800</v>
+      </c>
+      <c r="H5" s="2">
+        <v>7</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="0"/>
+        <v>7.875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>18520116</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>700</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
+        <v>800</v>
+      </c>
+      <c r="H6" s="2">
+        <v>8</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="0"/>
+        <v>5.875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>18520630</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="C7" s="2">
+        <v>100</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="0"/>
+        <v>4.875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>18520808</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8">
+      <c r="C8" s="2">
+        <v>800</v>
+      </c>
+      <c r="D8" s="2">
         <v>700</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="E8" s="4">
+        <v>600</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="4">
+        <v>600</v>
+      </c>
+      <c r="H8" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="0"/>
+        <v>8.125</v>
+      </c>
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>18521362</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D9">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="C9" s="2">
+        <v>400</v>
+      </c>
+      <c r="D9" s="2">
+        <v>800</v>
+      </c>
+      <c r="E9" s="2">
+        <v>800</v>
+      </c>
+      <c r="F9" s="2">
+        <v>800</v>
+      </c>
+      <c r="G9" s="2">
+        <v>800</v>
+      </c>
+      <c r="H9" s="2">
+        <v>7</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>18521440</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>19520139</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>19521134</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>19521532</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="C13" s="2">
+        <v>180</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>19522614</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>20520566</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D15">
+      <c r="C15" s="2">
+        <v>392.86</v>
+      </c>
+      <c r="D15" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.61607500000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>20520618</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2">
+        <v>2</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>20520745</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="C17" s="2">
+        <v>800</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2">
+        <v>650</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="0"/>
+        <v>1.8125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>20520993</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D18">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="0"/>
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>20521148</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
         <v>20521170</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
         <v>20521418</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D21">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2">
         <v>500</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="E21" s="2">
+        <v>716.67</v>
+      </c>
+      <c r="F21" s="2">
+        <v>800</v>
+      </c>
+      <c r="G21" s="2">
+        <v>800</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5208375000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
         <v>21520140</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D22">
+      <c r="C22" s="2">
+        <v>800</v>
+      </c>
+      <c r="D22" s="2">
         <v>771.43</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="E22" s="2">
+        <v>800</v>
+      </c>
+      <c r="F22" s="2">
+        <v>800</v>
+      </c>
+      <c r="G22" s="2">
+        <v>800</v>
+      </c>
+      <c r="H22" s="2">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" si="0"/>
+        <v>8.9642875000000011</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
         <v>21520395</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D23">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="C23" s="2">
+        <v>800</v>
+      </c>
+      <c r="D23" s="2">
+        <v>800</v>
+      </c>
+      <c r="E23" s="2">
+        <v>800</v>
+      </c>
+      <c r="F23" s="2">
+        <v>800</v>
+      </c>
+      <c r="G23" s="2">
+        <v>800</v>
+      </c>
+      <c r="H23" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="0"/>
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
         <v>21521232</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D24">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="C24" s="2">
+        <v>800</v>
+      </c>
+      <c r="D24" s="2">
+        <v>800</v>
+      </c>
+      <c r="E24" s="2">
+        <v>800</v>
+      </c>
+      <c r="F24" s="2">
+        <v>800</v>
+      </c>
+      <c r="G24" s="2">
+        <v>800</v>
+      </c>
+      <c r="H24" s="2">
+        <v>7</v>
+      </c>
+      <c r="I24" s="3">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
         <v>21521431</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D25">
+      <c r="C25" s="2">
+        <v>800</v>
+      </c>
+      <c r="D25" s="2">
         <v>600</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="E25" s="2">
+        <v>66.67</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" si="0"/>
+        <v>1.8333375000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
         <v>21521432</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D26">
+      <c r="C26" s="2">
+        <v>800</v>
+      </c>
+      <c r="D26" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="E26" s="2">
+        <v>700</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2">
+        <v>7</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
         <v>21521917</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D27">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="C27" s="2">
+        <v>800</v>
+      </c>
+      <c r="D27" s="2">
+        <v>800</v>
+      </c>
+      <c r="E27" s="2">
+        <v>800</v>
+      </c>
+      <c r="F27" s="2">
+        <v>800</v>
+      </c>
+      <c r="G27" s="2">
+        <v>800</v>
+      </c>
+      <c r="H27" s="2">
+        <v>9</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
         <v>21521922</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D28">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="C28" s="2">
+        <v>800</v>
+      </c>
+      <c r="D28" s="2">
+        <v>800</v>
+      </c>
+      <c r="E28" s="2">
+        <v>800</v>
+      </c>
+      <c r="F28" s="2">
+        <v>800</v>
+      </c>
+      <c r="G28" s="2">
+        <v>800</v>
+      </c>
+      <c r="H28" s="2">
+        <v>9</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
         <v>21522022</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
         <v>21522449</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D30">
+      <c r="C30" s="2">
+        <v>800</v>
+      </c>
+      <c r="D30" s="2">
         <v>600</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="E30" s="2">
+        <v>500</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="4">
+        <v>400</v>
+      </c>
+      <c r="H30" s="4">
+        <v>7</v>
+      </c>
+      <c r="I30" s="3">
+        <f t="shared" si="0"/>
+        <v>6.375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
         <v>21522680</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D31">
-        <v>800</v>
+      <c r="C31" s="2">
+        <v>800</v>
+      </c>
+      <c r="D31" s="2">
+        <v>800</v>
+      </c>
+      <c r="E31" s="2">
+        <v>800</v>
+      </c>
+      <c r="F31" s="2">
+        <v>800</v>
+      </c>
+      <c r="G31" s="2">
+        <v>800</v>
+      </c>
+      <c r="H31" s="2">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="33" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M33" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>